--- a/hardware/pinout/pinout.xlsx
+++ b/hardware/pinout/pinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logic\_workspace\esp8266-tryout\hardware\pinout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DFF2DA-F622-4016-A1B6-9B28039AF884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0E5D94-DCE1-495F-A5EC-BDA794996873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>ESP-12E pinout</t>
   </si>
@@ -147,9 +147,6 @@
     <t xml:space="preserve"> GPIO2;  UART1_TXD </t>
   </si>
   <si>
-    <t xml:space="preserve"> GPIO0 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> GPIO4 </t>
   </si>
   <si>
@@ -169,13 +166,58 @@
   </si>
   <si>
     <t>Function</t>
+  </si>
+  <si>
+    <t>TEMP</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>CAN_TX</t>
+  </si>
+  <si>
+    <t>CAN_RX</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GPIO0, FLASH</t>
+  </si>
+  <si>
+    <t>I2C_SDA</t>
+  </si>
+  <si>
+    <t>i2C_SCL</t>
+  </si>
+  <si>
+    <t>INPUT_FLASH</t>
+  </si>
+  <si>
+    <t>INPUT_USER</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>https://www.electronicwings.com/nodemcu/nodemcu-i2c-with-arduino-ide</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +228,34 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -204,8 +274,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,17 +312,69 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -243,22 +393,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="7" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
+  <cellStyles count="9">
+    <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
+    <cellStyle name="60% - Accent4" xfId="6" builtinId="44"/>
+    <cellStyle name="60% - Accent5" xfId="8" builtinId="48"/>
+    <cellStyle name="Accent2" xfId="5" builtinId="33"/>
+    <cellStyle name="Accent5" xfId="7" builtinId="45"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -272,6 +459,205 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>116314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>125747</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38165</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE4CAFF0-4D34-47B7-A5C8-6B87D5BB8E00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18433677" y="407667"/>
+          <a:ext cx="4865835" cy="4953292"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>907676</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>574004</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>162236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2495C57-BB69-4E2F-9AD2-80F1FD5305D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="907676" y="10925736"/>
+          <a:ext cx="11342857" cy="2000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>21383</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>298074</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24B62219-2A01-498D-BD05-2D48FDBE17A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10487677" y="0"/>
+          <a:ext cx="6932985" cy="5815853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>257735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>453838</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>179854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{483D1877-24EC-4B5F-A583-964F99715A1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12853147" y="5580529"/>
+          <a:ext cx="7143750" cy="4695825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -537,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,268 +934,342 @@
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="92.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D4" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D5" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D6" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D7" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D9" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D10" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D11" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D12" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D13" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D14" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D15" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D16" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D17" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D18" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D19" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D20" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>44</v>
+      <c r="C25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>